--- a/Documents/Tài liệu kế hoạch LXH.xlsx
+++ b/Documents/Tài liệu kế hoạch LXH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CNPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{941B9D93-7A6B-4E8D-AA7D-9E5D517E57D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B635DF6-5EDF-4350-A35D-22DD59D7D168}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0EFAAE0E-C937-4699-9A01-3E9190EC454B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{0EFAAE0E-C937-4699-9A01-3E9190EC454B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>Deadline</t>
-  </si>
-  <si>
-    <t>- Làm vào word 
-- Trình bày sạch sẽ, đẹp đẽ</t>
   </si>
   <si>
     <t>Xác định các lớp dự kiến 
@@ -136,25 +132,36 @@
     <t>Chưa</t>
   </si>
   <si>
+    <t>Trình bày vào word</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
+  </si>
+  <si>
+    <t>Lâm</t>
+  </si>
+  <si>
+    <t>T.Tuấn+Tuấn</t>
+  </si>
+  <si>
+    <t>Đăng+Tuấn
+Chiến</t>
+  </si>
+  <si>
+    <t>T.Tuấn+Đăng</t>
+  </si>
+  <si>
+    <t>Đăng+Chiến
+Lâm</t>
+  </si>
+  <si>
+    <t>Lâm+T.Tuấn</t>
+  </si>
+  <si>
     <t>Tuấn+Chiến</t>
   </si>
   <si>
-    <t>T.Tuấn + Lâm +Đăng</t>
-  </si>
-  <si>
-    <t>Đăng +Lâm</t>
-  </si>
-  <si>
-    <t>T.Tuấn</t>
-  </si>
-  <si>
-    <t>Chiến</t>
-  </si>
-  <si>
-    <t>Tuấn+Lâm</t>
-  </si>
-  <si>
-    <t>T.Tuấn +Đăng</t>
+    <t>T.Tuấn +Lâm</t>
   </si>
 </sst>
 </file>
@@ -341,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,9 +380,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,21 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -409,44 +476,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -457,41 +515,11 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -809,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA2BD206-2308-4282-A11A-1F66BE3078CB}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -834,66 +862,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="A1" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
+      <c r="A3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="1:21" s="3" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="22"/>
       <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
@@ -905,303 +933,297 @@
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="37" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="39"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="35"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="57" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="9" t="s">
+      <c r="D6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="56"/>
+      <c r="I6" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="41"/>
+      <c r="J6" s="58"/>
     </row>
     <row r="7" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="41"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="58"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="27" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="28"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="41"/>
+      <c r="J8" s="58"/>
     </row>
     <row r="9" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="32"/>
+      <c r="D9" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="28"/>
       <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="41"/>
-    </row>
-    <row r="10" spans="1:21" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="61"/>
+      <c r="I9" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="58"/>
+    </row>
+    <row r="10" spans="1:21" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="D10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="28"/>
       <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="41"/>
+        <v>40</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="58"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="40"/>
       <c r="F11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="41"/>
+        <v>37</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="40"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="58"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>3</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="29" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="41"/>
-    </row>
-    <row r="13" spans="1:21" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="58"/>
+    </row>
+    <row r="13" spans="1:21" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="44"/>
+      <c r="D13" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="48"/>
       <c r="F13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="46"/>
+        <v>34</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="50"/>
       <c r="I13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="41"/>
-    </row>
-    <row r="14" spans="1:21" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J13" s="58"/>
+    </row>
+    <row r="14" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="48"/>
-      <c r="F14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="46"/>
+      <c r="D14" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="50"/>
       <c r="I14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="41"/>
-    </row>
-    <row r="15" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J14" s="58"/>
+    </row>
+    <row r="15" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
-      <c r="D15" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="44"/>
+      <c r="D15" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="48"/>
       <c r="F15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
     </row>
     <row r="18" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
     </row>
     <row r="19" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
     </row>
     <row r="20" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
     </row>
     <row r="21" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
     </row>
     <row r="22" spans="12:21" x14ac:dyDescent="0.3">
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
     </row>
     <row r="23" spans="12:21" x14ac:dyDescent="0.3">
       <c r="L23" s="8"/>
@@ -1216,31 +1238,31 @@
       <c r="U23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J5:J15"/>
+  <mergeCells count="44">
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D11:E11"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J5:J15"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
     <mergeCell ref="L17:P17"/>
     <mergeCell ref="Q17:U17"/>
     <mergeCell ref="L16:U16"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A2:J2"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D9:E9"/>
@@ -1249,6 +1271,8 @@
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D8:H8"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="L20:P20"/>
     <mergeCell ref="L21:P21"/>
     <mergeCell ref="L22:P22"/>
@@ -1261,5 +1285,6 @@
     <mergeCell ref="L19:P19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>